--- a/data/trans_dic/P3A$personadelacasa-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.224794948266079</v>
+        <v>0.2212286805379922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2061166221605774</v>
+        <v>0.2048845434476959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2223404687851183</v>
+        <v>0.2270101004520483</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3178385021979971</v>
+        <v>0.3192431513303156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2760417248489583</v>
+        <v>0.2750955937410077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2818771330523123</v>
+        <v>0.2821557110454215</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2671443117080682</v>
+        <v>0.2671443117080683</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2391387905681252</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2335363742377419</v>
+        <v>0.2359451251377667</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2129697674525799</v>
+        <v>0.2165107319770744</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2321937135454347</v>
+        <v>0.2306432115772102</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3031574849714775</v>
+        <v>0.3078687657735628</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2633337631451552</v>
+        <v>0.2650323381184083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2745354399401893</v>
+        <v>0.2718346058959367</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2567904861113899</v>
+        <v>0.255470456936614</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2374446513672936</v>
+        <v>0.2375684556226469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2555085102416543</v>
+        <v>0.254616163881737</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3220863811633834</v>
+        <v>0.3222469545366867</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2898204628468212</v>
+        <v>0.2907855858029731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.29593557753203</v>
+        <v>0.2968174255055252</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2637803754931918</v>
+        <v>0.2637803754931919</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2726457002733272</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.229265098947545</v>
+        <v>0.2300983178168508</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2446336923954893</v>
+        <v>0.2442522299626269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.245716083207465</v>
+        <v>0.2465642082781291</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2976038391619023</v>
+        <v>0.2972016456825258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3028483831349998</v>
+        <v>0.3043719816934526</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2914959386610772</v>
+        <v>0.2932832148893741</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2537389321313374</v>
+        <v>0.2551649619481268</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2388896273300526</v>
+        <v>0.2406873034351215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2515020383666376</v>
+        <v>0.251990134450091</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2918907070168174</v>
+        <v>0.2911494143848533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2681990005698317</v>
+        <v>0.2692182095657837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2742879408358596</v>
+        <v>0.2742396268542365</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>111977</v>
+        <v>110200</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>128413</v>
+        <v>127646</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>249275</v>
+        <v>254510</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>158325</v>
+        <v>159024</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>171977</v>
+        <v>171388</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>316024</v>
+        <v>316336</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>224227</v>
+        <v>226540</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>237498</v>
+        <v>241447</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>481874</v>
+        <v>478656</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>291073</v>
+        <v>295596</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>293663</v>
+        <v>295557</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>569746</v>
+        <v>564141</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>268726</v>
+        <v>267344</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>248757</v>
+        <v>248887</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>535066</v>
+        <v>533197</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>337057</v>
+        <v>337225</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>303628</v>
+        <v>304639</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>619725</v>
+        <v>621572</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>223636</v>
+        <v>224448</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>222701</v>
+        <v>222354</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>463369</v>
+        <v>464969</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>290296</v>
+        <v>289904</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>275697</v>
+        <v>277084</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>549700</v>
+        <v>553071</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>883060</v>
+        <v>888023</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>882977</v>
+        <v>889621</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1804870</v>
+        <v>1808372</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1015835</v>
+        <v>1013256</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>991309</v>
+        <v>995077</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1968390</v>
+        <v>1968043</v>
       </c>
     </row>
     <row r="24">
